--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -12,42 +12,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
-    <t>m</t>
+    <t>2</t>
   </si>
   <si>
-    <t>n</t>
+    <t>1</t>
   </si>
   <si>
-    <t>b</t>
+    <t>3</t>
   </si>
   <si>
-    <t>v</t>
+    <t>4</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -92,7 +71,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -105,41 +84,21 @@
       <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
-        <v>2</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
